--- a/Naveenoutput.xlsx
+++ b/Naveenoutput.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S542000\Documents\python-map-reduce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FB6B12-A1D2-4337-8D74-89C945D8E9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425E9D16-016F-4707-BEF1-C7B0EA62BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FD0F516B-B8AB-467F-83F8-6CB3585FC5CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="output" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -165,7 +165,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>output!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -271,7 +271,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>output!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -288,7 +288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>output!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -556,7 +556,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>output!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -584,6 +584,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-62E5-48FA-9C35-4CF089C34455}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -603,6 +608,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-62E5-48FA-9C35-4CF089C34455}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -622,6 +632,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-62E5-48FA-9C35-4CF089C34455}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -696,7 +711,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>output!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -713,7 +728,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>output!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
